--- a/ds-kl-labelling-clean.xlsx
+++ b/ds-kl-labelling-clean.xlsx
@@ -889,7 +889,7 @@
     <t>Giacinta</t>
   </si>
   <si>
-    <t>,, smelter ini nantinya akan menghasilkan perak dan emas batangan karena ada fasilitas precious metal refinery (PMR) serta nikel, almunium, lithum dan cobalt yang merupakan bagian dari ekosistem kendaraan listrik</t>
+    <t>smelter ini nantinya akan menghasilkan perak dan emas batangan karena ada fasilitas precious metal refinery (PMR) serta nikel, almunium, lithum dan cobalt yang merupakan bagian dari ekosistem kendaraan listrik</t>
   </si>
   <si>
     <t>Way</t>
